--- a/biology/Médecine/Atychiphobie/Atychiphobie.xlsx
+++ b/biology/Médecine/Atychiphobie/Atychiphobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'atychiphobie \a.ti.ki.fɔ.bi\, ou la peur de l'échec, ou kakorraphiophobie[1], est une peur anormale, exagérée et persistante de l'échec. Elle est un type de phobie spécifique[2]. Comme d'autres phobies, l'atychiphobie mène souvent à un mode de vie restreint, affectant notamment la volonté d'une personne d'effectuer certaines activités. 
-Le terme est dérivé du grec phóbos, signifiant « peur », et atyches, signifiant « malchanceux »[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'atychiphobie \a.ti.ki.fɔ.bi\, ou la peur de l'échec, ou kakorraphiophobie, est une peur anormale, exagérée et persistante de l'échec. Elle est un type de phobie spécifique. Comme d'autres phobies, l'atychiphobie mène souvent à un mode de vie restreint, affectant notamment la volonté d'une personne d'effectuer certaines activités. 
+Le terme est dérivé du grec phóbos, signifiant « peur », et atyches, signifiant « malchanceux ».
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une personne souffrant d'atychiphobie envisage si intensément la possibilité d'un échec qu'elle refuse de prendre le risque. Elle peut, subconsciemment, diminuer ses capacités et se convaincre qu'il est inutile de continuer[4]. L'effort étant corrélé au degré de réalisation de l'individu, l'atychiphobie peut l'amener à se dévaloriser[5]. (exemple : une personne souffrant de l'atychiphobie
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une personne souffrant d'atychiphobie envisage si intensément la possibilité d'un échec qu'elle refuse de prendre le risque. Elle peut, subconsciemment, diminuer ses capacités et se convaincre qu'il est inutile de continuer. L'effort étant corrélé au degré de réalisation de l'individu, l'atychiphobie peut l'amener à se dévaloriser. (exemple : une personne souffrant de l'atychiphobie
 aura aussi des difficultés, voire une impossibilité à avoir une relation amoureuse car être rejeté signifie un échec et pour une rupture la personne se sentira coupable et cela sera alors considéré aussi comme un échec. Les conséquences seront alors, un renfermement et "l'estime de soi" de la personne sera gravement atteinte, d'autres phobies peuvent alors apparaître et dans le pire des cas mener au suicide.)   
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Origines et causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette phobie peut être éprouvée à la suite d'une situation non contrôlée et imposée par un conflit extérieur ou intérieur. Exemple séparation d'un couple avec beaucoup de violence. (conflit=échec)....
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
